--- a/Project/Database Structure.xlsx
+++ b/Project/Database Structure.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WindowsDocs\Documents\GitHub\Classics-2014\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jo\Documents\CMS\Classics-2014\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>Events</t>
   </si>
@@ -41,63 +41,101 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Options</t>
-  </si>
-  <si>
     <t>Competitors</t>
   </si>
   <si>
     <t>UID</t>
   </si>
   <si>
-    <t>Team</t>
-  </si>
-  <si>
     <t>Nationality</t>
   </si>
   <si>
-    <t>Event Specific</t>
-  </si>
-  <si>
-    <t>Accuracy Landings</t>
-  </si>
-  <si>
-    <t>LandingID</t>
-  </si>
-  <si>
     <t>Score</t>
   </si>
   <si>
-    <t>Wind Data</t>
-  </si>
-  <si>
-    <t>int, unique</t>
-  </si>
-  <si>
-    <t>int unique</t>
-  </si>
-  <si>
-    <t>serialised ruleset</t>
-  </si>
-  <si>
-    <t>Accuracy, etc.</t>
-  </si>
-  <si>
-    <t>serialised</t>
-  </si>
-  <si>
-    <t>Event EVENTID</t>
-  </si>
-  <si>
-    <t>LandingID/ScoreID</t>
+    <t>Things that need to be stored:</t>
+  </si>
+  <si>
+    <t>Landings</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t>Key:</t>
+  </si>
+  <si>
+    <t>Rejumpable</t>
+  </si>
+  <si>
+    <t>Could be serialised, useful in raw form</t>
+  </si>
+  <si>
+    <t>Event Teams</t>
+  </si>
+  <si>
+    <t>Team Name</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>FakeCompetitorEnumerator</t>
+  </si>
+  <si>
+    <t>Age? Competing Level?</t>
+  </si>
+  <si>
+    <t>Required, visible in table</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>String (int?)</t>
+  </si>
+  <si>
+    <t>Hex</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>string/int</t>
+  </si>
+  <si>
+    <t>Could/Should competitors be serialised?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -120,13 +158,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -143,11 +181,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,102 +468,321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N8"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project/Database Structure.xlsx
+++ b/Project/Database Structure.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jo\Documents\CMS\Classics-2014\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WindowsDocs\Documents\GitHub\Classics-2014\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>Events</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Nationality</t>
   </si>
   <si>
-    <t>Score</t>
-  </si>
-  <si>
     <t>Things that need to be stored:</t>
   </si>
   <si>
@@ -65,45 +62,24 @@
     <t>Data</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Modified</t>
-  </si>
-  <si>
     <t>Key:</t>
   </si>
   <si>
-    <t>Rejumpable</t>
-  </si>
-  <si>
-    <t>Could be serialised, useful in raw form</t>
-  </si>
-  <si>
     <t>Event Teams</t>
   </si>
   <si>
     <t>Team Name</t>
   </si>
   <si>
-    <t>Round</t>
-  </si>
-  <si>
     <t>FakeCompetitorEnumerator</t>
   </si>
   <si>
-    <t>Age? Competing Level?</t>
-  </si>
-  <si>
     <t>Required, visible in table</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
-    <t>String (int?)</t>
-  </si>
-  <si>
     <t>Hex</t>
   </si>
   <si>
@@ -116,17 +92,53 @@
     <t>string</t>
   </si>
   <si>
-    <t>string/int</t>
-  </si>
-  <si>
-    <t>Could/Should competitors be serialised?</t>
+    <t>Is contained in data</t>
+  </si>
+  <si>
+    <t>windDataPrior</t>
+  </si>
+  <si>
+    <t>windDataAfter</t>
+  </si>
+  <si>
+    <t>round</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>modified</t>
+  </si>
+  <si>
+    <t>rejumpable</t>
+  </si>
+  <si>
+    <t>isCompleted</t>
+  </si>
+  <si>
+    <t>wind[]</t>
+  </si>
+  <si>
+    <t>Rules</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>hex</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,27 +146,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -181,13 +179,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,302 +482,323 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+      <c r="C20" t="s">
         <v>21</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
-        <v>31</v>
+      <c r="C33" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Project/Database Structure.xlsx
+++ b/Project/Database Structure.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="72">
   <si>
     <t>Events</t>
   </si>
@@ -41,55 +41,205 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Options</t>
-  </si>
-  <si>
     <t>Competitors</t>
   </si>
   <si>
     <t>UID</t>
   </si>
   <si>
-    <t>Team</t>
-  </si>
-  <si>
     <t>Nationality</t>
   </si>
   <si>
-    <t>Event Specific</t>
-  </si>
-  <si>
-    <t>Accuracy Landings</t>
-  </si>
-  <si>
-    <t>LandingID</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>Wind Data</t>
-  </si>
-  <si>
-    <t>int, unique</t>
-  </si>
-  <si>
-    <t>int unique</t>
-  </si>
-  <si>
-    <t>serialised ruleset</t>
-  </si>
-  <si>
-    <t>Accuracy, etc.</t>
-  </si>
-  <si>
-    <t>serialised</t>
-  </si>
-  <si>
-    <t>Event EVENTID</t>
-  </si>
-  <si>
-    <t>LandingID/ScoreID</t>
+    <t>Things that need to be stored:</t>
+  </si>
+  <si>
+    <t>Landings</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Key:</t>
+  </si>
+  <si>
+    <t>Event Teams</t>
+  </si>
+  <si>
+    <t>Team Name</t>
+  </si>
+  <si>
+    <t>FakeCompetitorEnumerator</t>
+  </si>
+  <si>
+    <t>Required, visible in table</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Hex</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Is contained in data</t>
+  </si>
+  <si>
+    <t>windDataPrior</t>
+  </si>
+  <si>
+    <t>windDataAfter</t>
+  </si>
+  <si>
+    <t>round</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>modified</t>
+  </si>
+  <si>
+    <t>rejumpable</t>
+  </si>
+  <si>
+    <t>isCompleted</t>
+  </si>
+  <si>
+    <t>wind[]</t>
+  </si>
+  <si>
+    <t>Rules</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>hex</t>
+  </si>
+  <si>
+    <t>CreateCompetitor</t>
+  </si>
+  <si>
+    <t>CreateEvent</t>
+  </si>
+  <si>
+    <t>SaveTeams</t>
+  </si>
+  <si>
+    <t>CreateAccuracyLanding</t>
+  </si>
+  <si>
+    <t>AssignCompetitorToLanding</t>
+  </si>
+  <si>
+    <t>AssignWindDataToAccuracyLanding</t>
+  </si>
+  <si>
+    <t>RemoveEvent</t>
+  </si>
+  <si>
+    <t>RemoveAccuracyLanding</t>
+  </si>
+  <si>
+    <t>RemoveCompetitor</t>
+  </si>
+  <si>
+    <t>RemoveTeam</t>
+  </si>
+  <si>
+    <t>ModifyLanding</t>
+  </si>
+  <si>
+    <t>ModifyAccuracyRules</t>
+  </si>
+  <si>
+    <t>ModifyCompetitorName</t>
+  </si>
+  <si>
+    <t>GetCompetitorsByTeam</t>
+  </si>
+  <si>
+    <t>GetTeams</t>
+  </si>
+  <si>
+    <t>GetLastInsertKey</t>
+  </si>
+  <si>
+    <t>DoesCompetitorExist</t>
+  </si>
+  <si>
+    <t>GetLandingsForAccuracyEvent</t>
+  </si>
+  <si>
+    <t>GetNoOfEventsByTypeOnDay</t>
+  </si>
+  <si>
+    <t>GetEvents</t>
+  </si>
+  <si>
+    <t>GetCompetitorsForEvent</t>
+  </si>
+  <si>
+    <t>GetTeamsForEvent</t>
+  </si>
+  <si>
+    <t>ExecuteNonQuery</t>
+  </si>
+  <si>
+    <t>StringToByteArray</t>
+  </si>
+  <si>
+    <t>ByteArrayToHex</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Return type</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>List&lt;Competitor&gt;</t>
+  </si>
+  <si>
+    <t>List&lt;string&gt;</t>
+  </si>
+  <si>
+    <t>TMySQLEventReturn</t>
+  </si>
+  <si>
+    <t>List&lt;MySqlReturnLanding&gt;</t>
+  </si>
+  <si>
+    <t>List&lt;TMySQLEventReturn&gt;</t>
+  </si>
+  <si>
+    <t>List&lt;Team&gt;</t>
+  </si>
+  <si>
+    <t>byte[]</t>
+  </si>
+  <si>
+    <t>CompetitorEventSpecificID's</t>
   </si>
 </sst>
 </file>
@@ -105,7 +255,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,19 +264,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -143,11 +287,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,102 +575,505 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N8"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="C34" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project/Database Structure.xlsx
+++ b/Project/Database Structure.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="75">
   <si>
     <t>Events</t>
   </si>
@@ -240,6 +240,15 @@
   </si>
   <si>
     <t>CompetitorEventSpecificID's</t>
+  </si>
+  <si>
+    <t>TID</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>List&lt;EventCompetitor&gt;</t>
   </si>
 </sst>
 </file>
@@ -575,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,9 +980,6 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>13</v>
-      </c>
       <c r="E26" s="2" t="s">
         <v>55</v>
       </c>
@@ -982,11 +988,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>17</v>
+      <c r="A27" t="s">
+        <v>5</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>56</v>
@@ -1011,7 +1014,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
         <v>21</v>
@@ -1024,8 +1027,11 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>5</v>
+      <c r="B30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>59</v>
@@ -1036,10 +1042,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>60</v>
@@ -1048,29 +1054,46 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>21</v>
-      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
